--- a/medicine/Enfance/Elizabeth_Coatsworth/Elizabeth_Coatsworth.xlsx
+++ b/medicine/Enfance/Elizabeth_Coatsworth/Elizabeth_Coatsworth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elizabeth Coatsworth (31 mai 1893 - 31 août 1986) est une romancière et une illustratrice américaine de livres pour enfants qui a remporté en 1931 la médaille Newbery pour son livre The Cat Who Went to Heaven (littéralement : Le Chat qui alla au Paradis). 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un seul de ses romans a été publié en France : Un voyage romanesque[1] (The Captain' Daughter, 1950).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un seul de ses romans a été publié en France : Un voyage romanesque (The Captain' Daughter, 1950).
 </t>
         </is>
       </c>
@@ -542,10 +556,48 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(liste bon exhaustive)
-Romans pour la jeunesse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elizabeth_Coatsworth</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elizabeth_Coatsworth</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Cat and the Captain, 1927
 The Cat Who Went to Heaven, 1930
 The Golden Horseshoe, 1935
@@ -575,7 +627,43 @@
 The Fair American ,1940
 The White Horse , 1942
 The Wonderful Day, 1946
-Pour adultes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elizabeth_Coatsworth</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elizabeth_Coatsworth</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pour adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Here I Stay, Coward McCann, roman, 1938
 The Trunk, Macmillan, roman, 1941
 Série The Incredible Tales
@@ -587,34 +675,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Elizabeth_Coatsworth</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Elizabeth_Coatsworth</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1931 : Médaille Newbery pour son livre The Cat Who Went to Heaven
-1968 : (international) « Hightly Commended Authors »[2], par l' IBBY, pour l'ensemble de son œuvre</t>
+1968 : (international) « Hightly Commended Authors », par l' IBBY, pour l'ensemble de son œuvre</t>
         </is>
       </c>
     </row>
